--- a/data/trans_bre/P21B_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21B_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.400102118653259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.17496467665016</v>
+        <v>2.174964676650171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01029795892442346</v>
@@ -649,7 +649,7 @@
         <v>-0.03462357177039233</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.02330613977447011</v>
+        <v>0.02330613977447023</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8331432840656036</v>
+        <v>-1.043409260099047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7201620585307112</v>
+        <v>-1.139406803736359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.580229855522585</v>
+        <v>-8.625155361784099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.49735391821429</v>
+        <v>-2.435652190317476</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.008462460339859774</v>
+        <v>-0.01052062798636162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.007178244012809068</v>
+        <v>-0.01155476974866916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.08683979160397515</v>
+        <v>-0.08814780199124116</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02568447585286734</v>
+        <v>-0.02500565767084497</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.855420878988279</v>
+        <v>4.215550501613096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.494905337654778</v>
+        <v>6.891458268589869</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8538992369656871</v>
+        <v>0.9398838682234567</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.94880398390699</v>
+        <v>13.85376057870547</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05111223571411674</v>
+        <v>0.04430511167245078</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08212060646455964</v>
+        <v>0.07437663534995095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.008755360841101631</v>
+        <v>0.009266248053789424</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1553664617977759</v>
+        <v>0.1673480412179234</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.645155345071088</v>
+        <v>-3.210713231412519</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05904004134090208</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.4100487276055643</v>
+        <v>-0.4055432528219213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.347927884093945</v>
+        <v>-3.787231570474034</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0366114325825118</v>
+        <v>-0.0326121399256719</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.000637744147097855</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.004304486233699167</v>
+        <v>-0.004292912342480099</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04499338934771752</v>
+        <v>-0.03922323459141868</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.867853881622089</v>
+        <v>2.222338207353818</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.416874988078511</v>
+        <v>4.192017798565009</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.83005301055698</v>
+        <v>11.40686253756088</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.071633907295468</v>
+        <v>4.072252078603886</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01927312700395228</v>
+        <v>0.02298936680388963</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04630115097016535</v>
+        <v>0.0437760906751759</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1403302460156289</v>
+        <v>0.1356583059081304</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04373848941798619</v>
+        <v>0.04429232433904054</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.900309798329159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.689807681817201</v>
+        <v>-1.689807681817224</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04198130015913965</v>
@@ -849,7 +849,7 @@
         <v>-0.03074611689684913</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01871798967671212</v>
+        <v>-0.01871798967671236</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.263110470493642</v>
+        <v>-1.66560298651857</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.573494294359228</v>
+        <v>-4.598780586890949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.462896313457554</v>
+        <v>-8.805625481923645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.946779067258214</v>
+        <v>-8.517832928149465</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02409173815430221</v>
+        <v>-0.0178424215806263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04611081549475794</v>
+        <v>-0.04731104963332332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.09730417458681477</v>
+        <v>-0.09240297387549125</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08538483681376736</v>
+        <v>-0.09160885515776128</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.95213893781412</v>
+        <v>10.85934212497774</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.916544803206624</v>
+        <v>3.141925713223854</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.327695104572206</v>
+        <v>2.993977482664609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.427370823941607</v>
+        <v>5.0302681636007</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1277065753690805</v>
+        <v>0.1277952088529165</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03079487309854463</v>
+        <v>0.03328735154601142</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0361764621960893</v>
+        <v>0.03175185644913665</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.06267517546035413</v>
+        <v>0.05831178932509413</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.042131738970653</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.352851442044224</v>
+        <v>2.352851442044246</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02679808439620507</v>
@@ -949,7 +949,7 @@
         <v>-0.01144587022837952</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.02693949377669731</v>
+        <v>0.02693949377669757</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.719023848535376</v>
+        <v>-2.768215995108103</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.377067764617705</v>
+        <v>-9.568581519416304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.745436331205461</v>
+        <v>-7.414319804520352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.455965326866717</v>
+        <v>-2.922423574049644</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01817417168069754</v>
+        <v>-0.02841697782472244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09557739973476201</v>
+        <v>-0.09718400441251741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07277182538099201</v>
+        <v>-0.07856248702982245</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03814002986313009</v>
+        <v>-0.03224629174074006</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.908083986095058</v>
+        <v>7.453377473353301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.344568550704675</v>
+        <v>-1.56057255071836</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.895038088250108</v>
+        <v>4.958288788098738</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.443437993470257</v>
+        <v>8.643880299630174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08846818295072068</v>
+        <v>0.08398435398081507</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.014186726775276</v>
+        <v>-0.01609399687977891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05441079548446377</v>
+        <v>0.05685008869586546</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1012276503242351</v>
+        <v>0.1047677609964026</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.1185530727297546</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3682128997439138</v>
+        <v>0.3682128997438916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01381109550743543</v>
@@ -1049,7 +1049,7 @@
         <v>-0.001278217422498558</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.004031800484549865</v>
+        <v>0.004031800484549622</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7593085929147324</v>
+        <v>-0.6818117709196619</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.104904378335506</v>
+        <v>-2.234398639816451</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.376976718468921</v>
+        <v>-2.987408473969538</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.126178553228495</v>
+        <v>-2.353982749291541</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.00797790037507507</v>
+        <v>-0.007029674422532379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02147843612459237</v>
+        <v>-0.02267630484822196</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.03573018474759772</v>
+        <v>-0.03180958782832873</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0228554554281076</v>
+        <v>-0.02531563778687341</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.920316785941713</v>
+        <v>3.923660182614095</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.260113249446566</v>
+        <v>1.282421306349554</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.843328789199678</v>
+        <v>3.119702891435057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.359203662150533</v>
+        <v>3.700543225327531</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04177278339647986</v>
+        <v>0.04175580180060562</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01308177327940702</v>
+        <v>0.01340616790080459</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03118950740521188</v>
+        <v>0.03444754431519152</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.03765420928124116</v>
+        <v>0.04138077882090823</v>
       </c>
     </row>
     <row r="19">
